--- a/xlsx/恶水盆地_intext.xlsx
+++ b/xlsx/恶水盆地_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>政策_政策_加州_恶水盆地</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>死亡谷國家公園</t>
+    <t>死亡谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E7%99%BC</t>
   </si>
   <si>
-    <t>蒸發</t>
+    <t>蒸发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%87%8C</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%94%9F%E6%98%86%E8%9F%B2</t>
   </si>
   <si>
-    <t>水生昆蟲</t>
+    <t>水生昆虫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%90%8D</t>
   </si>
   <si>
-    <t>學名</t>
+    <t>学名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD</t>
   </si>
   <si>
-    <t>鹽</t>
+    <t>盐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E8%B0%B7</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%A6%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>礦物質</t>
+    <t>矿物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
